--- a/MasterPL.xlsx
+++ b/MasterPL.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\SalesBreakdownrepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\BrentProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B64F9CE-F75F-4934-9327-E7B5BBE29CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C623EFE-90FD-4182-B350-D637C634EB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesman P&amp;L" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Salesman P&amp;L'!$B:$L</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Salesman P&amp;L'!$B:$R</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="55">
   <si>
     <t>SALESMAN P&amp;L</t>
   </si>
@@ -68,6 +70,12 @@
     <t>SALESMAN PIPELINE</t>
   </si>
   <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
     <t>Units</t>
   </si>
   <si>
@@ -141,6 +149,57 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
   </si>
 </sst>
 </file>
@@ -151,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +248,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -215,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -385,17 +449,160 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,7 +613,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,14 +664,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,19 +685,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -836,10 +1073,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L51"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,16 +1084,16 @@
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="12" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -869,60 +1106,79 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="M4" s="12">
+        <f>Data!N4</f>
+        <v>1347145</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -930,580 +1186,968 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="36" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" t="s">
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="P8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="17" t="s">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="L9" s="46"/>
+      <c r="M9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="N9" s="44"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19">
-        <f>C10+E10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <f>D10+F10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21" t="e">
-        <f>SUM(C15:C26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="22" t="e">
-        <f>SUM(D15:D26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="21" t="e">
-        <f>SUM(E15:E26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="22" t="e">
-        <f>SUM(F15:F26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="21" t="e">
-        <f>C11+E11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="22" t="e">
-        <f>D11+F11</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="16" t="e">
-        <f>G11/G10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="19">
+        <f>C11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <f>D11+H11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="P11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="25" t="e">
-        <f t="shared" ref="C12:H12" si="0">C11-C10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="23" t="e">
+      <c r="C12" s="21">
+        <f t="shared" ref="C12:J12" si="0">SUM(C16:C27)</f>
+        <v>304</v>
+      </c>
+      <c r="D12" s="22">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="25" t="e">
+        <v>2894800</v>
+      </c>
+      <c r="E12" s="35">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="23" t="e">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="23" t="e">
+        <v>131</v>
+      </c>
+      <c r="H12" s="22">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="s">
+        <v>1335000</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <f>C12+G12</f>
+        <v>435</v>
+      </c>
+      <c r="L12" s="22">
+        <f>D12+H12</f>
+        <v>4229800</v>
+      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="16" t="e">
+        <f>K12/K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24">
+        <f>C12-C11</f>
+        <v>304</v>
+      </c>
+      <c r="D13" s="23">
+        <f>D12-D11</f>
+        <v>2894800</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="24">
+        <f>G12-G11</f>
+        <v>131</v>
+      </c>
+      <c r="H13" s="23">
+        <f>H12-H11</f>
+        <v>1335000</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="24">
+        <f>K12-K11</f>
+        <v>435</v>
+      </c>
+      <c r="L13" s="23">
+        <f>L12-L11</f>
+        <v>4229800</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="41"/>
+      <c r="P13" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="20"/>
-      <c r="J13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="20"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="20"/>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="20"/>
+      <c r="P15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="15">
-        <f>SUM(K12:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f>SUM(L12:L13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="27" t="e">
-        <f t="shared" ref="G15:G26" si="1">C15+E15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="20" t="e">
-        <f t="shared" ref="H15:H26" si="2">D15+F15</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="15">
+        <f>SUM(Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="15">
+        <f>SUM(R13:R14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="33">
+        <f>Data!D16</f>
+        <v>22</v>
+      </c>
+      <c r="D16" s="33">
+        <f>Data!E16</f>
+        <v>214500</v>
+      </c>
+      <c r="E16" s="33">
+        <f>Data!F16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <f>Data!G16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="33">
+        <f>Data!H16</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="33">
+        <f>Data!I16</f>
+        <v>114000</v>
+      </c>
+      <c r="I16" s="33">
+        <f>Data!J16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <f>Data!K16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <f>Data!L16</f>
+        <v>30</v>
+      </c>
+      <c r="L16" s="33">
+        <f>Data!M16</f>
+        <v>328500</v>
+      </c>
+      <c r="M16" s="33">
+        <f>Data!N16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <f>Data!O16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="33">
+        <f>Data!D17</f>
+        <v>33</v>
+      </c>
+      <c r="D17" s="33">
+        <f>Data!E17</f>
+        <v>241500</v>
+      </c>
+      <c r="E17" s="33">
+        <f>Data!F17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <f>Data!G17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="33">
+        <f>Data!H17</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="33">
+        <f>Data!I17</f>
+        <v>135000</v>
+      </c>
+      <c r="I17" s="33">
+        <f>Data!J17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <f>Data!K17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <f>Data!L17</f>
+        <v>43</v>
+      </c>
+      <c r="L17" s="33">
+        <f>Data!M17</f>
+        <v>376500</v>
+      </c>
+      <c r="M17" s="33">
+        <f>Data!N17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <f>Data!O17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="33">
+        <f>Data!D18</f>
+        <v>22</v>
+      </c>
+      <c r="D18" s="33">
+        <f>Data!E18</f>
+        <v>269800</v>
+      </c>
+      <c r="E18" s="33">
+        <f>Data!F18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f>Data!G18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
+        <f>Data!H18</f>
+        <v>13</v>
+      </c>
+      <c r="H18" s="33">
+        <f>Data!I18</f>
+        <v>147000</v>
+      </c>
+      <c r="I18" s="33">
+        <f>Data!J18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
+        <f>Data!K18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <f>Data!L18</f>
+        <v>35</v>
+      </c>
+      <c r="L18" s="33">
+        <f>Data!M18</f>
+        <v>416800</v>
+      </c>
+      <c r="M18" s="33">
+        <f>Data!N18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <f>Data!O18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="33">
+        <f>Data!D19</f>
+        <v>29</v>
+      </c>
+      <c r="D19" s="33">
+        <f>Data!E19</f>
+        <v>347500</v>
+      </c>
+      <c r="E19" s="33">
+        <f>Data!F19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <f>Data!G19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <f>Data!H19</f>
+        <v>13</v>
+      </c>
+      <c r="H19" s="33">
+        <f>Data!I19</f>
+        <v>99000</v>
+      </c>
+      <c r="I19" s="33">
+        <f>Data!J19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <f>Data!K19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <f>Data!L19</f>
+        <v>42</v>
+      </c>
+      <c r="L19" s="33">
+        <f>Data!M19</f>
+        <v>446500</v>
+      </c>
+      <c r="M19" s="33">
+        <f>Data!N19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <f>Data!O19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="33">
+        <f>Data!D20</f>
+        <v>24</v>
+      </c>
+      <c r="D20" s="33">
+        <f>Data!E20</f>
+        <v>282500</v>
+      </c>
+      <c r="E20" s="33">
+        <f>Data!F20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <f>Data!G20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="33">
+        <f>Data!H20</f>
+        <v>10</v>
+      </c>
+      <c r="H20" s="33">
+        <f>Data!I20</f>
+        <v>98000</v>
+      </c>
+      <c r="I20" s="33">
+        <f>Data!J20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <f>Data!K20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="33">
+        <f>Data!L20</f>
+        <v>34</v>
+      </c>
+      <c r="L20" s="33">
+        <f>Data!M20</f>
+        <v>380500</v>
+      </c>
+      <c r="M20" s="33">
+        <f>Data!N20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <f>Data!O20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="33">
+        <f>Data!D21</f>
+        <v>24</v>
+      </c>
+      <c r="D21" s="33">
+        <f>Data!E21</f>
+        <v>241500</v>
+      </c>
+      <c r="E21" s="33">
+        <f>Data!F21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <f>Data!G21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="33">
+        <f>Data!H21</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="33">
+        <f>Data!I21</f>
+        <v>98000</v>
+      </c>
+      <c r="I21" s="33">
+        <f>Data!J21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
+        <f>Data!K21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="33">
+        <f>Data!L21</f>
+        <v>34</v>
+      </c>
+      <c r="L21" s="33">
+        <f>Data!M21</f>
+        <v>339500</v>
+      </c>
+      <c r="M21" s="33">
+        <f>Data!N21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <f>Data!O21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="33">
+        <f>Data!D22</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="33">
+        <f>Data!E22</f>
+        <v>120500</v>
+      </c>
+      <c r="E22" s="33">
+        <f>Data!F22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="33">
+        <f>Data!G22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="33">
+        <f>Data!H22</f>
+        <v>12</v>
+      </c>
+      <c r="H22" s="33">
+        <f>Data!I22</f>
+        <v>122000</v>
+      </c>
+      <c r="I22" s="33">
+        <f>Data!J22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="33">
+        <f>Data!K22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="33">
+        <f>Data!L22</f>
+        <v>24</v>
+      </c>
+      <c r="L22" s="33">
+        <f>Data!M22</f>
+        <v>242500</v>
+      </c>
+      <c r="M22" s="33">
+        <f>Data!N22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <f>Data!O22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="33">
+        <f>Data!D23</f>
+        <v>28</v>
+      </c>
+      <c r="D23" s="33">
+        <f>Data!E23</f>
+        <v>228500</v>
+      </c>
+      <c r="E23" s="33">
+        <f>Data!F23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="33">
+        <f>Data!G23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="33">
+        <f>Data!H23</f>
+        <v>14</v>
+      </c>
+      <c r="H23" s="33">
+        <f>Data!I23</f>
+        <v>135000</v>
+      </c>
+      <c r="I23" s="33">
+        <f>Data!J23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
+        <f>Data!K23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="33">
+        <f>Data!L23</f>
+        <v>42</v>
+      </c>
+      <c r="L23" s="33">
+        <f>Data!M23</f>
+        <v>363500</v>
+      </c>
+      <c r="M23" s="33">
+        <f>Data!N23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <f>Data!O23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="33">
+        <f>Data!D24</f>
+        <v>23</v>
+      </c>
+      <c r="D24" s="33">
+        <f>Data!E24</f>
+        <v>193500</v>
+      </c>
+      <c r="E24" s="33">
+        <f>Data!F24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="33">
+        <f>Data!G24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33">
+        <f>Data!H24</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="33">
+        <f>Data!I24</f>
+        <v>104000</v>
+      </c>
+      <c r="I24" s="33">
+        <f>Data!J24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
+        <f>Data!K24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="33">
+        <f>Data!L24</f>
+        <v>35</v>
+      </c>
+      <c r="L24" s="33">
+        <f>Data!M24</f>
+        <v>297500</v>
+      </c>
+      <c r="M24" s="33">
+        <f>Data!N24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <f>Data!O24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="33">
+        <f>Data!D25</f>
         <v>26</v>
       </c>
-      <c r="C20" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="14" t="s">
+      <c r="D25" s="33">
+        <f>Data!E25</f>
+        <v>213500</v>
+      </c>
+      <c r="E25" s="33">
+        <f>Data!F25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <f>Data!G25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="33">
+        <f>Data!H25</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="33">
+        <f>Data!I25</f>
+        <v>95000</v>
+      </c>
+      <c r="I25" s="33">
+        <f>Data!J25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <f>Data!K25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="33">
+        <f>Data!L25</f>
+        <v>36</v>
+      </c>
+      <c r="L25" s="33">
+        <f>Data!M25</f>
+        <v>308500</v>
+      </c>
+      <c r="M25" s="33">
+        <f>Data!N25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <f>Data!O25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="33">
+        <f>Data!D26</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="D26" s="33">
+        <f>Data!E26</f>
+        <v>207000</v>
+      </c>
+      <c r="E26" s="33">
+        <f>Data!F26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <f>Data!G26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="33">
+        <f>Data!H26</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="33">
+        <f>Data!I26</f>
+        <v>98000</v>
+      </c>
+      <c r="I26" s="33">
+        <f>Data!J26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
+        <f>Data!K26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="33">
+        <f>Data!L26</f>
+        <v>37</v>
+      </c>
+      <c r="L26" s="33">
+        <f>Data!M26</f>
+        <v>305000</v>
+      </c>
+      <c r="M26" s="33">
+        <f>Data!N26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <f>Data!O26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="33">
+        <f>Data!D27</f>
         <v>33</v>
       </c>
-      <c r="C25" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="24" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="35" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="27" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="33">
+        <f>Data!E27</f>
+        <v>334500</v>
+      </c>
+      <c r="E27" s="33">
+        <f>Data!F27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
+        <f>Data!G27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="33">
+        <f>Data!H27</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="33">
+        <f>Data!I27</f>
+        <v>90000</v>
+      </c>
+      <c r="I27" s="33">
+        <f>Data!J27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
+        <f>Data!K27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="33">
+        <f>Data!L27</f>
+        <v>43</v>
+      </c>
+      <c r="L27" s="33">
+        <f>Data!M27</f>
+        <v>424500</v>
+      </c>
+      <c r="M27" s="33">
+        <f>Data!N27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <f>Data!O27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1514,8 +2158,14 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1526,8 +2176,14 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1538,8 +2194,14 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1550,8 +2212,14 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1562,8 +2230,14 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1574,8 +2248,14 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1586,8 +2266,14 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1598,8 +2284,14 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1610,8 +2302,14 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1622,8 +2320,14 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1634,8 +2338,14 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1646,8 +2356,14 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1658,8 +2374,14 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1670,8 +2392,14 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1682,8 +2410,14 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1694,8 +2428,14 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1706,8 +2446,14 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1718,38 +2464,76 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="50" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="52" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="11">
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:H12">
+  <conditionalFormatting sqref="C13:N13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
@@ -1758,6 +2542,1461 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="47" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1347145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>304</v>
+      </c>
+      <c r="E12">
+        <v>2894800</v>
+      </c>
+      <c r="H12">
+        <v>131</v>
+      </c>
+      <c r="I12">
+        <v>1335000</v>
+      </c>
+      <c r="L12">
+        <v>435</v>
+      </c>
+      <c r="M12">
+        <v>4229800</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <v>2894800</v>
+      </c>
+      <c r="H13">
+        <v>131</v>
+      </c>
+      <c r="I13">
+        <v>1335000</v>
+      </c>
+      <c r="L13">
+        <v>435</v>
+      </c>
+      <c r="M13">
+        <v>4229800</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>214500</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>114000</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>328500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="42">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>241500</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>135000</v>
+      </c>
+      <c r="L17">
+        <v>43</v>
+      </c>
+      <c r="M17">
+        <v>376500</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>269800</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>147000</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>416800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>347500</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>99000</v>
+      </c>
+      <c r="L19">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>446500</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>282500</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>98000</v>
+      </c>
+      <c r="L20">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>380500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>241500</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>98000</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>339500</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>120500</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>122000</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>242500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>228500</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>135000</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23">
+        <v>363500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>193500</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>104000</v>
+      </c>
+      <c r="L24">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>213500</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>95000</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>308500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>207000</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>98000</v>
+      </c>
+      <c r="L26">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="42">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>334500</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>90000</v>
+      </c>
+      <c r="L27">
+        <v>43</v>
+      </c>
+      <c r="M27">
+        <v>424500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="42">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>962860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>143</v>
+      </c>
+      <c r="E11">
+        <v>1645800</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>913000</v>
+      </c>
+      <c r="H11">
+        <v>193</v>
+      </c>
+      <c r="I11">
+        <v>2558800</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>143</v>
+      </c>
+      <c r="E12">
+        <v>1645800</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>913000</v>
+      </c>
+      <c r="H12">
+        <v>193</v>
+      </c>
+      <c r="I12">
+        <v>2558800</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>143500</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>76000</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>136500</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>74000</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>210500</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>189800</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>117000</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>306800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>210000</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>69000</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>279000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>220000</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>68000</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>158500</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>68000</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>226500</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>58500</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>74000</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>78000</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>97000</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>82000</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>74000</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>82000</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>68000</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>82000</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>68000</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>205000</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>60000</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>